--- a/output/1Y_P25_KFSDIV.xlsx
+++ b/output/1Y_P25_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.0645</v>
       </c>
       <c r="C2" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D2" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>765.433</v>
+        <v>763.9011</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.8083</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E3" s="1">
-        <v>765.433</v>
+        <v>763.9011</v>
       </c>
       <c r="F3" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="H3" s="1">
-        <v>10569.3291</v>
+        <v>10527.0918</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10569.3291</v>
+        <v>10527.0918</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0569</v>
+        <v>0.0527</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>13.5636</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E4" s="1">
-        <v>1489.6352</v>
+        <v>1486.6533</v>
       </c>
       <c r="F4" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>20204.8154</v>
+        <v>20124.0828</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20204.8154</v>
+        <v>20124.0828</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.4261</v>
+        <v>13.453</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>344.4449</v>
+        <v>343.7555</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9655.5551</v>
+        <v>-9656.244500000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0177</v>
+        <v>-0.0196</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>13.1788</v>
       </c>
       <c r="C5" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D5" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E5" s="1">
-        <v>2226.9025</v>
+        <v>2222.4452</v>
       </c>
       <c r="F5" s="1">
-        <v>761.6985</v>
+        <v>760.1699</v>
       </c>
       <c r="H5" s="1">
-        <v>29347.9033</v>
+        <v>29230.4881</v>
       </c>
       <c r="I5" s="1">
-        <v>344.4449</v>
+        <v>343.7555</v>
       </c>
       <c r="J5" s="1">
-        <v>29692.3481</v>
+        <v>29574.2436</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4716</v>
+        <v>13.4986</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10038.2717</v>
+        <v>-10038.1951</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.017</v>
+        <v>-0.0183</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>14.5668</v>
       </c>
       <c r="C6" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D6" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E6" s="1">
-        <v>2988.601</v>
+        <v>2982.6151</v>
       </c>
       <c r="F6" s="1">
-        <v>689.1199</v>
+        <v>687.736</v>
       </c>
       <c r="H6" s="1">
-        <v>43534.3531</v>
+        <v>43360.3628</v>
       </c>
       <c r="I6" s="1">
-        <v>306.1732</v>
+        <v>305.5604</v>
       </c>
       <c r="J6" s="1">
-        <v>43840.5263</v>
+        <v>43665.9233</v>
       </c>
       <c r="K6" s="1">
-        <v>40038.2717</v>
+        <v>40038.1951</v>
       </c>
       <c r="L6" s="1">
-        <v>13.397</v>
+        <v>13.4239</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10038.2717</v>
+        <v>-10038.1951</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1045</v>
+        <v>0.1034</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>13.962</v>
       </c>
       <c r="C7" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D7" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E7" s="1">
-        <v>3677.7209</v>
+        <v>3670.3511</v>
       </c>
       <c r="F7" s="1">
-        <v>718.9709</v>
+        <v>717.5265000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>51348.3392</v>
+        <v>51143.039</v>
       </c>
       <c r="I7" s="1">
-        <v>267.9016</v>
+        <v>267.3654</v>
       </c>
       <c r="J7" s="1">
-        <v>51616.2407</v>
+        <v>51410.4043</v>
       </c>
       <c r="K7" s="1">
-        <v>50076.5433</v>
+        <v>50076.3901</v>
       </c>
       <c r="L7" s="1">
-        <v>13.6162</v>
+        <v>13.6435</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1344.8705</v>
+        <v>1342.1768</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8693.4012</v>
+        <v>-8696.0183</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0413</v>
+        <v>-0.042</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>12.2659</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E8" s="1">
-        <v>4396.6918</v>
+        <v>4387.8775</v>
       </c>
       <c r="F8" s="1">
-        <v>836.6624</v>
+        <v>834.9450000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>53929.3819</v>
+        <v>53713.764</v>
       </c>
       <c r="I8" s="1">
-        <v>1574.5004</v>
+        <v>1571.3471</v>
       </c>
       <c r="J8" s="1">
-        <v>55503.8822</v>
+        <v>55285.1111</v>
       </c>
       <c r="K8" s="1">
-        <v>60114.815</v>
+        <v>60114.5852</v>
       </c>
       <c r="L8" s="1">
-        <v>13.6727</v>
+        <v>13.7002</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10262.4167</v>
+        <v>-10261.8912</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0992</v>
+        <v>-0.0997</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>12.4103</v>
       </c>
       <c r="C9" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D9" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E9" s="1">
-        <v>5233.3541</v>
+        <v>5222.8225</v>
       </c>
       <c r="F9" s="1">
-        <v>826.9274</v>
+        <v>825.2293</v>
       </c>
       <c r="H9" s="1">
-        <v>64947.4949</v>
+        <v>64687.2681</v>
       </c>
       <c r="I9" s="1">
-        <v>1312.0836</v>
+        <v>1309.4559</v>
       </c>
       <c r="J9" s="1">
-        <v>66259.57859999999</v>
+        <v>65996.724</v>
       </c>
       <c r="K9" s="1">
-        <v>70377.2317</v>
+        <v>70376.47629999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.4478</v>
+        <v>13.4748</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10262.4167</v>
+        <v>-10261.8912</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0115</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>12.3976</v>
       </c>
       <c r="C10" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D10" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E10" s="1">
-        <v>6060.2815</v>
+        <v>6048.0518</v>
       </c>
       <c r="F10" s="1">
-        <v>827.7745</v>
+        <v>826.0796</v>
       </c>
       <c r="H10" s="1">
-        <v>75132.9461</v>
+        <v>74831.3351</v>
       </c>
       <c r="I10" s="1">
-        <v>1049.6669</v>
+        <v>1047.5647</v>
       </c>
       <c r="J10" s="1">
-        <v>76182.613</v>
+        <v>75878.8999</v>
       </c>
       <c r="K10" s="1">
-        <v>80639.64840000001</v>
+        <v>80638.36749999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3063</v>
+        <v>13.3329</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2355.0094</v>
+        <v>2350.2701</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7907.4074</v>
+        <v>-7911.6211</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.001</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>12.9013</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E11" s="1">
-        <v>6888.056</v>
+        <v>6874.1314</v>
       </c>
       <c r="F11" s="1">
-        <v>856.2962</v>
+        <v>854.4244</v>
       </c>
       <c r="H11" s="1">
-        <v>88864.8766</v>
+        <v>88507.8786</v>
       </c>
       <c r="I11" s="1">
-        <v>3142.2595</v>
+        <v>3135.9437</v>
       </c>
       <c r="J11" s="1">
-        <v>92007.13619999999</v>
+        <v>91643.8223</v>
       </c>
       <c r="K11" s="1">
-        <v>90902.06510000001</v>
+        <v>90900.25870000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1971</v>
+        <v>13.2235</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11047.4198</v>
+        <v>-11045.3146</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.06759999999999999</v>
+        <v>0.06710000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>13.3527</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E12" s="1">
-        <v>7744.3522</v>
+        <v>7728.5557</v>
       </c>
       <c r="F12" s="1">
-        <v>827.3548</v>
+        <v>825.5402</v>
       </c>
       <c r="H12" s="1">
-        <v>103408.0114</v>
+        <v>102990.7338</v>
       </c>
       <c r="I12" s="1">
-        <v>2094.8397</v>
+        <v>2090.6291</v>
       </c>
       <c r="J12" s="1">
-        <v>105502.8511</v>
+        <v>105081.3629</v>
       </c>
       <c r="K12" s="1">
-        <v>101949.485</v>
+        <v>101945.5733</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1644</v>
+        <v>13.1908</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11047.4198</v>
+        <v>-11045.3146</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0343</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>13.8804</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E13" s="1">
-        <v>8571.706899999999</v>
+        <v>8554.0959</v>
       </c>
       <c r="F13" s="1">
-        <v>795.9007</v>
+        <v>794.1585</v>
       </c>
       <c r="H13" s="1">
-        <v>118978.721</v>
+        <v>118496.4689</v>
       </c>
       <c r="I13" s="1">
-        <v>1047.4198</v>
+        <v>1045.3146</v>
       </c>
       <c r="J13" s="1">
-        <v>120026.1409</v>
+        <v>119541.7834</v>
       </c>
       <c r="K13" s="1">
-        <v>112996.9048</v>
+        <v>112990.8878</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1825</v>
+        <v>13.209</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3484.9585</v>
+        <v>3477.8501</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7562.4614</v>
+        <v>-7567.4645</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0392</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>14.6268</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E14" s="1">
-        <v>9367.607599999999</v>
+        <v>9348.254300000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9367.607599999999</v>
+        <v>-9348.254300000001</v>
       </c>
       <c r="H14" s="1">
-        <v>137018.1232</v>
+        <v>136462.0777</v>
       </c>
       <c r="I14" s="1">
-        <v>3484.9585</v>
+        <v>3477.8501</v>
       </c>
       <c r="J14" s="1">
-        <v>140503.0817</v>
+        <v>139939.9278</v>
       </c>
       <c r="K14" s="1">
-        <v>124044.3247</v>
+        <v>124036.2024</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2418</v>
+        <v>13.2684</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>137018.1232</v>
+        <v>136462.0777</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0806</v>
+        <v>0.0803</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.0645</v>
       </c>
       <c r="C2" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D2" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>765.433</v>
+        <v>763.9011</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.8083</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E3" s="1">
-        <v>765.433</v>
+        <v>763.9011</v>
       </c>
       <c r="F3" s="1">
-        <v>682.9712</v>
+        <v>687.404</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10569.3291</v>
+        <v>10527.0918</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10569.3291</v>
+        <v>10527.0918</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9430.670899999999</v>
+        <v>-9510.921700000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0569</v>
+        <v>0.0527</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>13.5636</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E4" s="1">
-        <v>1448.4042</v>
+        <v>1451.3051</v>
       </c>
       <c r="F4" s="1">
-        <v>763.398</v>
+        <v>764.9251</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19645.5755</v>
+        <v>19645.5913</v>
       </c>
       <c r="I4" s="1">
-        <v>569.3291</v>
+        <v>489.0783</v>
       </c>
       <c r="J4" s="1">
-        <v>20214.9046</v>
+        <v>20134.6696</v>
       </c>
       <c r="K4" s="1">
-        <v>19430.6709</v>
+        <v>19510.9217</v>
       </c>
       <c r="L4" s="1">
-        <v>13.4152</v>
+        <v>13.4437</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>344.4449</v>
+        <v>343.7555</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10009.9796</v>
+        <v>-10052.1886</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0172</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>13.1788</v>
       </c>
       <c r="C5" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D5" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E5" s="1">
-        <v>2211.8022</v>
+        <v>2216.2302</v>
       </c>
       <c r="F5" s="1">
-        <v>801.2376</v>
+        <v>790.3621000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29148.8985</v>
+        <v>29148.746</v>
       </c>
       <c r="I5" s="1">
-        <v>559.3495</v>
+        <v>436.8897</v>
       </c>
       <c r="J5" s="1">
-        <v>29708.248</v>
+        <v>29585.6356</v>
       </c>
       <c r="K5" s="1">
-        <v>29785.0954</v>
+        <v>29906.8658</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4664</v>
+        <v>13.4945</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10559.3495</v>
+        <v>-10436.8897</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0168</v>
+        <v>-0.0182</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>14.5668</v>
       </c>
       <c r="C6" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D6" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E6" s="1">
-        <v>3013.0397</v>
+        <v>3006.5923</v>
       </c>
       <c r="F6" s="1">
-        <v>419.4231</v>
+        <v>432.7413</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>43890.3471</v>
+        <v>43708.9368</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>43890.3471</v>
+        <v>43708.9368</v>
       </c>
       <c r="K6" s="1">
-        <v>40344.4449</v>
+        <v>40343.7555</v>
       </c>
       <c r="L6" s="1">
-        <v>13.3899</v>
+        <v>13.4184</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-6109.6529</v>
+        <v>-6316.292</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1053</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>13.962</v>
       </c>
       <c r="C7" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D7" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E7" s="1">
-        <v>3432.4629</v>
+        <v>3439.3336</v>
       </c>
       <c r="F7" s="1">
-        <v>864.9157</v>
+        <v>866.6496</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>47924.0465</v>
+        <v>47924.0182</v>
       </c>
       <c r="I7" s="1">
-        <v>3890.3471</v>
+        <v>3683.708</v>
       </c>
       <c r="J7" s="1">
-        <v>51814.3936</v>
+        <v>51607.7263</v>
       </c>
       <c r="K7" s="1">
-        <v>46454.0977</v>
+        <v>46660.0475</v>
       </c>
       <c r="L7" s="1">
-        <v>13.5338</v>
+        <v>13.5666</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1355.8679</v>
+        <v>1352.9665</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10720.0857</v>
+        <v>-10771.4609</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0385</v>
+        <v>-0.0391</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>12.2659</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E8" s="1">
-        <v>4297.3786</v>
+        <v>4305.9832</v>
       </c>
       <c r="F8" s="1">
-        <v>1073.7297</v>
+        <v>1050.5876</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>52711.2162</v>
+        <v>52711.2623</v>
       </c>
       <c r="I8" s="1">
-        <v>3170.2615</v>
+        <v>2912.2471</v>
       </c>
       <c r="J8" s="1">
-        <v>55881.4776</v>
+        <v>55623.5094</v>
       </c>
       <c r="K8" s="1">
-        <v>58530.0513</v>
+        <v>58784.4749</v>
       </c>
       <c r="L8" s="1">
-        <v>13.6199</v>
+        <v>13.6518</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-13170.2615</v>
+        <v>-12912.2471</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.096</v>
+        <v>-0.09710000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>12.4103</v>
       </c>
       <c r="C9" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D9" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E9" s="1">
-        <v>5371.1083</v>
+        <v>5356.5708</v>
       </c>
       <c r="F9" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>66657.06570000001</v>
+        <v>66343.80740000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66657.06570000001</v>
+        <v>66343.80740000001</v>
       </c>
       <c r="K9" s="1">
-        <v>71700.31269999999</v>
+        <v>71696.72199999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3493</v>
+        <v>13.3848</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0118</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>12.3976</v>
       </c>
       <c r="C10" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D10" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E10" s="1">
-        <v>6176.8906</v>
+        <v>6160.7396</v>
       </c>
       <c r="F10" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>76578.6192</v>
+        <v>76225.59880000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76578.6192</v>
+        <v>76225.59880000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81700.31269999999</v>
+        <v>81696.72199999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2268</v>
+        <v>13.2609</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2416.9987</v>
+        <v>2410.4569</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7583.0013</v>
+        <v>-7589.5431</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.001</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>12.9013</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E11" s="1">
-        <v>6983.4984</v>
+        <v>6965.737</v>
       </c>
       <c r="F11" s="1">
-        <v>767.6585</v>
+        <v>800.9517</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>90096.20729999999</v>
+        <v>89687.3469</v>
       </c>
       <c r="I11" s="1">
-        <v>2416.9987</v>
+        <v>2410.4569</v>
       </c>
       <c r="J11" s="1">
-        <v>92513.20600000001</v>
+        <v>92097.80379999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91700.31269999999</v>
+        <v>91696.72199999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.131</v>
+        <v>13.164</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9903.869500000001</v>
+        <v>-10354.0623</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.06850000000000001</v>
+        <v>0.06809999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>13.3527</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E12" s="1">
-        <v>7751.1569</v>
+        <v>7766.6887</v>
       </c>
       <c r="F12" s="1">
-        <v>486.8774</v>
+        <v>487.8513</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>103498.8722</v>
+        <v>103498.8932</v>
       </c>
       <c r="I12" s="1">
-        <v>2513.1293</v>
+        <v>2056.3946</v>
       </c>
       <c r="J12" s="1">
-        <v>106012.0015</v>
+        <v>105555.2878</v>
       </c>
       <c r="K12" s="1">
-        <v>101604.1822</v>
+        <v>102050.7843</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1083</v>
+        <v>13.1395</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6501.1278</v>
+        <v>-6527.2068</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0341</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>13.8804</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E13" s="1">
-        <v>8238.034299999999</v>
+        <v>8254.540000000001</v>
       </c>
       <c r="F13" s="1">
-        <v>407.2497</v>
+        <v>408.0937</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>114347.2107</v>
+        <v>114346.8408</v>
       </c>
       <c r="I13" s="1">
-        <v>6012.0015</v>
+        <v>5529.1878</v>
       </c>
       <c r="J13" s="1">
-        <v>120359.2121</v>
+        <v>119876.0285</v>
       </c>
       <c r="K13" s="1">
-        <v>108105.31</v>
+        <v>108577.9911</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1227</v>
+        <v>13.1537</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3488.0206</v>
+        <v>3495.0099</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-2164.7687</v>
+        <v>-2180.8393</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0375</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>14.6268</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E14" s="1">
-        <v>8645.284</v>
+        <v>8662.6337</v>
       </c>
       <c r="F14" s="1">
-        <v>-8645.284</v>
+        <v>-8662.6337</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126452.84</v>
+        <v>126453.6621</v>
       </c>
       <c r="I14" s="1">
-        <v>13847.2327</v>
+        <v>13348.3484</v>
       </c>
       <c r="J14" s="1">
-        <v>140300.0727</v>
+        <v>139802.0106</v>
       </c>
       <c r="K14" s="1">
-        <v>113758.0994</v>
+        <v>114253.8403</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1584</v>
+        <v>13.1893</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126452.84</v>
+        <v>126453.6621</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.07630000000000001</v>
+        <v>0.0764</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.0645</v>
       </c>
       <c r="C2" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D2" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>765.433</v>
+        <v>763.9011</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.8083</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E3" s="1">
-        <v>765.433</v>
+        <v>763.9011</v>
       </c>
       <c r="F3" s="1">
-        <v>686.5922</v>
+        <v>691.0323</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10569.3291</v>
+        <v>10527.0918</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10569.3291</v>
+        <v>10527.0918</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9480.670899999999</v>
+        <v>-9561.122300000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0569</v>
+        <v>0.0527</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>13.5636</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E4" s="1">
-        <v>1452.0252</v>
+        <v>1454.9333</v>
       </c>
       <c r="F4" s="1">
-        <v>770.8544000000001</v>
+        <v>768.0841</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19694.6894</v>
+        <v>19694.7053</v>
       </c>
       <c r="I4" s="1">
-        <v>519.3291</v>
+        <v>438.8777</v>
       </c>
       <c r="J4" s="1">
-        <v>20214.0185</v>
+        <v>20133.5829</v>
       </c>
       <c r="K4" s="1">
-        <v>19480.6709</v>
+        <v>19561.1223</v>
       </c>
       <c r="L4" s="1">
-        <v>13.4162</v>
+        <v>13.4447</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>344.4449</v>
+        <v>343.7555</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10111.1157</v>
+        <v>-10095.1222</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0173</v>
+        <v>-0.0192</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>13.1788</v>
       </c>
       <c r="C5" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D5" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E5" s="1">
-        <v>2222.8796</v>
+        <v>2223.0175</v>
       </c>
       <c r="F5" s="1">
-        <v>789.7694</v>
+        <v>783.3093</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29294.8859</v>
+        <v>29238.015</v>
       </c>
       <c r="I5" s="1">
-        <v>408.2134</v>
+        <v>343.7555</v>
       </c>
       <c r="J5" s="1">
-        <v>29703.0993</v>
+        <v>29581.7705</v>
       </c>
       <c r="K5" s="1">
-        <v>29936.2315</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4673</v>
+        <v>13.4952</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10408.2134</v>
+        <v>-10343.7555</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0169</v>
+        <v>-0.0183</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>14.5668</v>
       </c>
       <c r="C6" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D6" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E6" s="1">
-        <v>3012.6491</v>
+        <v>3006.3267</v>
       </c>
       <c r="F6" s="1">
-        <v>454.3105</v>
+        <v>467.5726</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>43884.6562</v>
+        <v>43705.0762</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>43884.6562</v>
+        <v>43705.0762</v>
       </c>
       <c r="K6" s="1">
-        <v>40344.4449</v>
+        <v>40343.7555</v>
       </c>
       <c r="L6" s="1">
-        <v>13.3917</v>
+        <v>13.4196</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-6617.8501</v>
+        <v>-6824.6896</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1053</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>13.962</v>
       </c>
       <c r="C7" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D7" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E7" s="1">
-        <v>3466.9595</v>
+        <v>3473.8993</v>
       </c>
       <c r="F7" s="1">
-        <v>884.4958</v>
+        <v>886.2688000000001</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>48405.6891</v>
+        <v>48405.6606</v>
       </c>
       <c r="I7" s="1">
-        <v>3382.1499</v>
+        <v>3175.3104</v>
       </c>
       <c r="J7" s="1">
-        <v>51787.8391</v>
+        <v>51580.971</v>
       </c>
       <c r="K7" s="1">
-        <v>46962.2949</v>
+        <v>47168.4451</v>
       </c>
       <c r="L7" s="1">
-        <v>13.5457</v>
+        <v>13.578</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1355.6921</v>
+        <v>1352.847</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10993.6376</v>
+        <v>-11046.0536</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0389</v>
+        <v>-0.0396</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>12.2659</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E8" s="1">
-        <v>4351.4553</v>
+        <v>4360.1681</v>
       </c>
       <c r="F8" s="1">
-        <v>1009.9962</v>
+        <v>986.8807</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>53374.5155</v>
+        <v>53374.5622</v>
       </c>
       <c r="I8" s="1">
-        <v>2388.5124</v>
+        <v>2129.2569</v>
       </c>
       <c r="J8" s="1">
-        <v>55763.0278</v>
+        <v>55503.819</v>
       </c>
       <c r="K8" s="1">
-        <v>59311.6246</v>
+        <v>59567.3457</v>
       </c>
       <c r="L8" s="1">
-        <v>13.6303</v>
+        <v>13.6617</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-12388.5124</v>
+        <v>-12129.2569</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0975</v>
+        <v>-0.0987</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>12.4103</v>
       </c>
       <c r="C9" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D9" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E9" s="1">
-        <v>5361.4515</v>
+        <v>5347.0488</v>
       </c>
       <c r="F9" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>66537.22139999999</v>
+        <v>66225.8729</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>66537.22139999999</v>
+        <v>66225.8729</v>
       </c>
       <c r="K9" s="1">
-        <v>71700.1369</v>
+        <v>71696.60249999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3733</v>
+        <v>13.4086</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0118</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>12.3976</v>
       </c>
       <c r="C10" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D10" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E10" s="1">
-        <v>6167.2338</v>
+        <v>6151.2176</v>
       </c>
       <c r="F10" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>76458.89750000001</v>
+        <v>76107.7853</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>76458.89750000001</v>
+        <v>76107.7853</v>
       </c>
       <c r="K10" s="1">
-        <v>81700.1369</v>
+        <v>81696.60249999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2475</v>
+        <v>13.2814</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2412.6532</v>
+        <v>2406.172</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7587.3468</v>
+        <v>-7593.828</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.001</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>12.9013</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E11" s="1">
-        <v>6973.8415</v>
+        <v>6956.215</v>
       </c>
       <c r="F11" s="1">
-        <v>954.0622</v>
+        <v>959.6952</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>89971.62149999999</v>
+        <v>89564.7467</v>
       </c>
       <c r="I11" s="1">
-        <v>2412.6532</v>
+        <v>2406.172</v>
       </c>
       <c r="J11" s="1">
-        <v>92384.27469999999</v>
+        <v>91970.91869999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91700.1369</v>
+        <v>91696.60249999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1492</v>
+        <v>13.182</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12308.738</v>
+        <v>-12406.172</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.06850000000000001</v>
+        <v>0.06809999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>13.3527</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E12" s="1">
-        <v>7927.9037</v>
+        <v>7915.9102</v>
       </c>
       <c r="F12" s="1">
-        <v>519.2018</v>
+        <v>548.1199</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>105858.9198</v>
+        <v>105487.42</v>
       </c>
       <c r="I12" s="1">
-        <v>103.9152</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>105962.835</v>
+        <v>105487.42</v>
       </c>
       <c r="K12" s="1">
-        <v>104008.8749</v>
+        <v>104102.7745</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1193</v>
+        <v>13.1511</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6932.7456</v>
+        <v>-7333.5698</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.035</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>13.8804</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E13" s="1">
-        <v>8447.1055</v>
+        <v>8464.0301</v>
       </c>
       <c r="F13" s="1">
-        <v>439.9312</v>
+        <v>440.8414</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>117249.203</v>
+        <v>117248.8237</v>
       </c>
       <c r="I13" s="1">
-        <v>3171.1696</v>
+        <v>2666.4302</v>
       </c>
       <c r="J13" s="1">
-        <v>120420.3726</v>
+        <v>119915.2538</v>
       </c>
       <c r="K13" s="1">
-        <v>110941.6205</v>
+        <v>111436.3443</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1337</v>
+        <v>13.1659</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3567.5567</v>
+        <v>3562.1596</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-2538.8641</v>
+        <v>-2569.1512</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0384</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>14.6268</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E14" s="1">
-        <v>8887.036700000001</v>
+        <v>8904.8716</v>
       </c>
       <c r="F14" s="1">
-        <v>-8887.036700000001</v>
+        <v>-8904.8716</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>129988.9079</v>
+        <v>129989.753</v>
       </c>
       <c r="I14" s="1">
-        <v>10632.3055</v>
+        <v>10097.2789</v>
       </c>
       <c r="J14" s="1">
-        <v>140621.2134</v>
+        <v>140087.032</v>
       </c>
       <c r="K14" s="1">
-        <v>117048.0413</v>
+        <v>117567.6552</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1706</v>
+        <v>13.2026</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129988.9079</v>
+        <v>129989.753</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.07820000000000001</v>
+        <v>0.07829999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.0645</v>
       </c>
       <c r="C2" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D2" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>765.433</v>
+        <v>763.9011</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.8083</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E3" s="1">
-        <v>765.433</v>
+        <v>763.9011</v>
       </c>
       <c r="F3" s="1">
-        <v>690.2132</v>
+        <v>694.6605</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10569.3291</v>
+        <v>10527.0918</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10569.3291</v>
+        <v>10527.0918</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9530.670899999999</v>
+        <v>-9611.323</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0569</v>
+        <v>0.0527</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>13.5636</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E4" s="1">
-        <v>1455.6462</v>
+        <v>1458.5616</v>
       </c>
       <c r="F4" s="1">
-        <v>771.8695</v>
+        <v>764.3904</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19743.8034</v>
+        <v>19743.8193</v>
       </c>
       <c r="I4" s="1">
-        <v>469.3291</v>
+        <v>388.677</v>
       </c>
       <c r="J4" s="1">
-        <v>20213.1325</v>
+        <v>20132.4963</v>
       </c>
       <c r="K4" s="1">
-        <v>19530.6709</v>
+        <v>19611.323</v>
       </c>
       <c r="L4" s="1">
-        <v>13.4172</v>
+        <v>13.4457</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>344.4449</v>
+        <v>343.7555</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10124.8842</v>
+        <v>-10044.9215</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0173</v>
+        <v>-0.0192</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>13.1788</v>
       </c>
       <c r="C5" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D5" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E5" s="1">
-        <v>2227.5157</v>
+        <v>2222.952</v>
       </c>
       <c r="F5" s="1">
-        <v>784.9307</v>
+        <v>783.3093</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29355.9844</v>
+        <v>29237.154</v>
       </c>
       <c r="I5" s="1">
-        <v>344.4449</v>
+        <v>343.7555</v>
       </c>
       <c r="J5" s="1">
-        <v>29700.4293</v>
+        <v>29580.9095</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4679</v>
+        <v>13.4956</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10344.4449</v>
+        <v>-10343.7555</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.017</v>
+        <v>-0.0183</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>14.5668</v>
       </c>
       <c r="C6" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D6" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E6" s="1">
-        <v>3012.4465</v>
+        <v>3006.2613</v>
       </c>
       <c r="F6" s="1">
-        <v>489.3556</v>
+        <v>502.5503</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>43881.7049</v>
+        <v>43704.1245</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>43881.7049</v>
+        <v>43704.1245</v>
       </c>
       <c r="K6" s="1">
-        <v>40344.4449</v>
+        <v>40343.7555</v>
       </c>
       <c r="L6" s="1">
-        <v>13.3926</v>
+        <v>13.4199</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7128.3452</v>
+        <v>-7335.2243</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1053</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>13.962</v>
       </c>
       <c r="C7" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D7" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E7" s="1">
-        <v>3501.802</v>
+        <v>3508.8116</v>
       </c>
       <c r="F7" s="1">
-        <v>904.4543</v>
+        <v>906.2673</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>48892.1602</v>
+        <v>48892.1314</v>
       </c>
       <c r="I7" s="1">
-        <v>2871.6548</v>
+        <v>2664.7757</v>
       </c>
       <c r="J7" s="1">
-        <v>51763.8151</v>
+        <v>51556.9072</v>
       </c>
       <c r="K7" s="1">
-        <v>47472.79</v>
+        <v>47678.9798</v>
       </c>
       <c r="L7" s="1">
-        <v>13.5567</v>
+        <v>13.5884</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1355.6009</v>
+        <v>1352.8176</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11272.3895</v>
+        <v>-11325.8619</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0393</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>12.2659</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E8" s="1">
-        <v>4406.2563</v>
+        <v>4415.0789</v>
       </c>
       <c r="F8" s="1">
-        <v>945.6514</v>
+        <v>922.5755</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>54046.6993</v>
+        <v>54046.7466</v>
       </c>
       <c r="I8" s="1">
-        <v>1599.2654</v>
+        <v>1338.9138</v>
       </c>
       <c r="J8" s="1">
-        <v>55645.9646</v>
+        <v>55385.6604</v>
       </c>
       <c r="K8" s="1">
-        <v>60100.7804</v>
+        <v>60357.6593</v>
       </c>
       <c r="L8" s="1">
-        <v>13.6399</v>
+        <v>13.6708</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11599.2654</v>
+        <v>-11338.9138</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.09909999999999999</v>
+        <v>-0.1003</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>12.4103</v>
       </c>
       <c r="C9" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D9" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E9" s="1">
-        <v>5351.9077</v>
+        <v>5337.6543</v>
       </c>
       <c r="F9" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>66418.7801</v>
+        <v>66109.51790000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66418.7801</v>
+        <v>66109.51790000001</v>
       </c>
       <c r="K9" s="1">
-        <v>71700.04580000001</v>
+        <v>71696.57309999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3971</v>
+        <v>13.4322</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0118</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>12.3976</v>
       </c>
       <c r="C10" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D10" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E10" s="1">
-        <v>6157.69</v>
+        <v>6141.8232</v>
       </c>
       <c r="F10" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>76340.5775</v>
+        <v>75991.5496</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76340.5775</v>
+        <v>75991.5496</v>
       </c>
       <c r="K10" s="1">
-        <v>81700.04580000001</v>
+        <v>81696.57309999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.268</v>
+        <v>13.3017</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2408.3585</v>
+        <v>2401.9445</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7591.6415</v>
+        <v>-7598.0555</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.001</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>12.9013</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E11" s="1">
-        <v>6964.2977</v>
+        <v>6946.8206</v>
       </c>
       <c r="F11" s="1">
-        <v>961.7839</v>
+        <v>959.3682</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>89848.4942</v>
+        <v>89443.7884</v>
       </c>
       <c r="I11" s="1">
-        <v>2408.3585</v>
+        <v>2401.9445</v>
       </c>
       <c r="J11" s="1">
-        <v>92256.8527</v>
+        <v>91845.7329</v>
       </c>
       <c r="K11" s="1">
-        <v>91700.04580000001</v>
+        <v>91696.57309999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1672</v>
+        <v>13.1998</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12408.3585</v>
+        <v>-12401.9445</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.06850000000000001</v>
+        <v>0.06809999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>13.3527</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E12" s="1">
-        <v>7926.0816</v>
+        <v>7906.1888</v>
       </c>
       <c r="F12" s="1">
-        <v>736.4621</v>
+        <v>747.4121</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>105834.5897</v>
+        <v>105357.8716</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>105834.5897</v>
+        <v>105357.8716</v>
       </c>
       <c r="K12" s="1">
-        <v>104108.4042</v>
+        <v>104098.5175</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1349</v>
+        <v>13.1667</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9833.7569</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.035</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>13.8804</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E13" s="1">
-        <v>8662.5437</v>
+        <v>8653.600899999999</v>
       </c>
       <c r="F13" s="1">
-        <v>474.443</v>
+        <v>501.7223</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>120239.571</v>
+        <v>119874.8712</v>
       </c>
       <c r="I13" s="1">
-        <v>166.2431</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>120405.814</v>
+        <v>119874.8712</v>
       </c>
       <c r="K13" s="1">
-        <v>113942.1612</v>
+        <v>114098.5175</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1534</v>
+        <v>13.1851</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3566.7367</v>
+        <v>3557.7849</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-3018.7225</v>
+        <v>-3420.2697</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0395</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>14.6268</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E14" s="1">
-        <v>9136.986699999999</v>
+        <v>9155.323200000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9136.986699999999</v>
+        <v>-9155.323200000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>133644.877</v>
+        <v>133645.7459</v>
       </c>
       <c r="I14" s="1">
-        <v>7147.5206</v>
+        <v>6579.7303</v>
       </c>
       <c r="J14" s="1">
-        <v>140792.3976</v>
+        <v>140225.4762</v>
       </c>
       <c r="K14" s="1">
-        <v>120527.6203</v>
+        <v>121076.5722</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1912</v>
+        <v>13.2247</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>133644.877</v>
+        <v>133645.7459</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0796</v>
+        <v>0.07969999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.0645</v>
       </c>
       <c r="C2" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D2" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>765.433</v>
+        <v>763.9011</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.8083</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E3" s="1">
-        <v>765.433</v>
+        <v>763.9011</v>
       </c>
       <c r="F3" s="1">
-        <v>693.8342</v>
+        <v>698.2888</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10569.3291</v>
+        <v>10527.0918</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10569.3291</v>
+        <v>10527.0918</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9580.670899999999</v>
+        <v>-9661.5236</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0569</v>
+        <v>0.0527</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>13.5636</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E4" s="1">
-        <v>1459.2673</v>
+        <v>1462.1899</v>
       </c>
       <c r="F4" s="1">
-        <v>768.1832000000001</v>
+        <v>760.6967</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19792.9173</v>
+        <v>19792.9332</v>
       </c>
       <c r="I4" s="1">
-        <v>419.3291</v>
+        <v>338.4764</v>
       </c>
       <c r="J4" s="1">
-        <v>20212.2464</v>
+        <v>20131.4096</v>
       </c>
       <c r="K4" s="1">
-        <v>19580.6709</v>
+        <v>19661.5236</v>
       </c>
       <c r="L4" s="1">
-        <v>13.4182</v>
+        <v>13.4466</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>344.4449</v>
+        <v>343.7555</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10074.8842</v>
+        <v>-9994.7209</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0174</v>
+        <v>-0.0193</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>13.1788</v>
       </c>
       <c r="C5" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D5" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E5" s="1">
-        <v>2227.4504</v>
+        <v>2222.8866</v>
       </c>
       <c r="F5" s="1">
-        <v>784.9307</v>
+        <v>783.3093</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29355.1235</v>
+        <v>29236.2931</v>
       </c>
       <c r="I5" s="1">
-        <v>344.4449</v>
+        <v>343.7555</v>
       </c>
       <c r="J5" s="1">
-        <v>29699.5684</v>
+        <v>29580.0486</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4683</v>
+        <v>13.496</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10344.4449</v>
+        <v>-10343.7555</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.017</v>
+        <v>-0.0183</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>14.5668</v>
       </c>
       <c r="C6" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D6" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E6" s="1">
-        <v>3012.3811</v>
+        <v>3006.1958</v>
       </c>
       <c r="F6" s="1">
-        <v>524.6119</v>
+        <v>537.8771</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>43880.7534</v>
+        <v>43703.1729</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>43880.7534</v>
+        <v>43703.1729</v>
       </c>
       <c r="K6" s="1">
-        <v>40344.4449</v>
+        <v>40343.7555</v>
       </c>
       <c r="L6" s="1">
-        <v>13.3929</v>
+        <v>13.4202</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7641.9159</v>
+        <v>-7850.8546</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1053</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>13.962</v>
       </c>
       <c r="C7" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D7" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E7" s="1">
-        <v>3536.993</v>
+        <v>3544.0729</v>
       </c>
       <c r="F7" s="1">
-        <v>885.1228</v>
+        <v>868.4164</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49383.4959</v>
+        <v>49383.4668</v>
       </c>
       <c r="I7" s="1">
-        <v>2358.0841</v>
+        <v>2149.1454</v>
       </c>
       <c r="J7" s="1">
-        <v>51741.58</v>
+        <v>51532.6122</v>
       </c>
       <c r="K7" s="1">
-        <v>47986.3608</v>
+        <v>48194.6101</v>
       </c>
       <c r="L7" s="1">
-        <v>13.567</v>
+        <v>13.5987</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1355.5715</v>
+        <v>1352.7881</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11002.5126</v>
+        <v>-10796.3573</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0397</v>
+        <v>-0.0404</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>12.2659</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E8" s="1">
-        <v>4422.1157</v>
+        <v>4412.4893</v>
       </c>
       <c r="F8" s="1">
-        <v>925.7838</v>
+        <v>923.7043</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>54241.2295</v>
+        <v>54015.047</v>
       </c>
       <c r="I8" s="1">
-        <v>1355.5715</v>
+        <v>1352.7881</v>
       </c>
       <c r="J8" s="1">
-        <v>55596.801</v>
+        <v>55367.8351</v>
       </c>
       <c r="K8" s="1">
-        <v>60344.4449</v>
+        <v>60343.7555</v>
       </c>
       <c r="L8" s="1">
-        <v>13.6461</v>
+        <v>13.6757</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11355.5715</v>
+        <v>-11352.7881</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.09950000000000001</v>
+        <v>-0.1002</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>12.4103</v>
       </c>
       <c r="C9" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D9" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E9" s="1">
-        <v>5347.8995</v>
+        <v>5336.1937</v>
       </c>
       <c r="F9" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>66369.0377</v>
+        <v>66091.4268</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66369.0377</v>
+        <v>66091.4268</v>
       </c>
       <c r="K9" s="1">
-        <v>71700.01639999999</v>
+        <v>71696.5436</v>
       </c>
       <c r="L9" s="1">
-        <v>13.4071</v>
+        <v>13.4359</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0118</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>12.3976</v>
       </c>
       <c r="C10" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D10" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E10" s="1">
-        <v>6153.6818</v>
+        <v>6140.3625</v>
       </c>
       <c r="F10" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>76290.88589999999</v>
+        <v>75973.477</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76290.88589999999</v>
+        <v>75973.477</v>
       </c>
       <c r="K10" s="1">
-        <v>81700.01639999999</v>
+        <v>81696.5436</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2766</v>
+        <v>13.3048</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2406.5548</v>
+        <v>2401.2872</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7593.4452</v>
+        <v>-7598.7128</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.001</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>12.9013</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E11" s="1">
-        <v>6960.2896</v>
+        <v>6945.3599</v>
       </c>
       <c r="F11" s="1">
-        <v>961.6441</v>
+        <v>959.3173</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>89796.7838</v>
+        <v>89424.98149999999</v>
       </c>
       <c r="I11" s="1">
-        <v>2406.5548</v>
+        <v>2401.2872</v>
       </c>
       <c r="J11" s="1">
-        <v>92203.3386</v>
+        <v>91826.2687</v>
       </c>
       <c r="K11" s="1">
-        <v>91700.01639999999</v>
+        <v>91696.5436</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1747</v>
+        <v>13.2026</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12406.5548</v>
+        <v>-12401.2872</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.06850000000000001</v>
+        <v>0.06809999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>13.3527</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E12" s="1">
-        <v>7921.9336</v>
+        <v>7904.6773</v>
       </c>
       <c r="F12" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>105779.2033</v>
+        <v>105337.7291</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>105779.2033</v>
+        <v>105337.7291</v>
       </c>
       <c r="K12" s="1">
-        <v>104106.5712</v>
+        <v>104097.8308</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1416</v>
+        <v>13.1691</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.035</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>13.8804</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E13" s="1">
-        <v>8670.845799999999</v>
+        <v>8652.0893</v>
       </c>
       <c r="F13" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>120354.8086</v>
+        <v>119853.9328</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>120354.8086</v>
+        <v>119853.9328</v>
       </c>
       <c r="K13" s="1">
-        <v>114106.5712</v>
+        <v>114097.8308</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1598</v>
+        <v>13.1873</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3564.8701</v>
+        <v>3557.1048</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6435.1299</v>
+        <v>-6442.8952</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0395</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>14.6268</v>
       </c>
       <c r="C14" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D14" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E14" s="1">
-        <v>9391.2862</v>
+        <v>9371.089599999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9391.2862</v>
+        <v>-9371.089599999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>137364.4646</v>
+        <v>136795.4182</v>
       </c>
       <c r="I14" s="1">
-        <v>3564.8701</v>
+        <v>3557.1048</v>
       </c>
       <c r="J14" s="1">
-        <v>140929.3347</v>
+        <v>140352.5229</v>
       </c>
       <c r="K14" s="1">
-        <v>124106.5712</v>
+        <v>124097.8308</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2151</v>
+        <v>13.2426</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>137364.4646</v>
+        <v>136795.4182</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.08110000000000001</v>
+        <v>0.0808</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4453,7 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.2418</v>
+        <v>13.2684</v>
       </c>
       <c r="D3" s="1">
-        <v>13.1584</v>
+        <v>13.1893</v>
       </c>
       <c r="E3" s="1">
-        <v>13.1706</v>
+        <v>13.2026</v>
       </c>
       <c r="F3" s="1">
-        <v>13.1912</v>
+        <v>13.2247</v>
       </c>
       <c r="G3" s="1">
-        <v>13.2151</v>
+        <v>13.2426</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.1328</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2184</v>
+        <v>0.2058</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2209</v>
+        <v>0.2085</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2225</v>
+        <v>0.2098</v>
       </c>
       <c r="F4" s="3">
-        <v>0.223</v>
+        <v>0.2101</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2236</v>
+        <v>0.2108</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1948</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1904</v>
+        <v>0.19</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1864</v>
+        <v>0.1866</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1883</v>
+        <v>0.1885</v>
       </c>
       <c r="F5" s="3">
-        <v>0.19</v>
+        <v>0.1901</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1909</v>
+        <v>0.1906</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.5776</v>
       </c>
       <c r="C6" s="4">
-        <v>1.0402</v>
+        <v>0.9762</v>
       </c>
       <c r="D6" s="4">
-        <v>1.0758</v>
+        <v>1.0085</v>
       </c>
       <c r="E6" s="4">
-        <v>1.0737</v>
+        <v>1.0057</v>
       </c>
       <c r="F6" s="4">
-        <v>1.0667</v>
+        <v>0.998</v>
       </c>
       <c r="G6" s="4">
-        <v>1.0649</v>
+        <v>0.9994</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3362</v>
+        <v>0.3266</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3409</v>
+        <v>0.3312</v>
       </c>
       <c r="E7" s="3">
-        <v>0.342</v>
+        <v>0.332</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3414</v>
+        <v>0.3311</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3417</v>
+        <v>0.3317</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>7529.2832</v>
+        <v>7514.0525</v>
       </c>
       <c r="D8" s="1">
-        <v>7605.3321</v>
+        <v>7602.1888</v>
       </c>
       <c r="E8" s="1">
-        <v>7680.3468</v>
+        <v>7664.9341</v>
       </c>
       <c r="F8" s="1">
-        <v>7675.141</v>
+        <v>7656.3025</v>
       </c>
       <c r="G8" s="1">
-        <v>7671.4413</v>
+        <v>7654.9355</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P25_KFSDIV.xlsx
+++ b/output/1Y_P25_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.0645</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8083</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5636</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.1788</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.5668</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.962</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2659</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.4103</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.3976</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.9013</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.3527</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8804</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.6268</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>8962.784299999999</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1313</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.2345</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2027</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1706</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.1378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
